--- a/Results_STAI_DASS21.xlsx
+++ b/Results_STAI_DASS21.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\EmotionalAttention\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitGit\EmoAttenxSound\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A94EF4F7-7D0D-4544-9528-6A6AF2ADF214}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD621C9C-134F-4831-AB5D-3BAB657D635A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="STAI" sheetId="3" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="146">
   <si>
     <t>Timestamp</t>
   </si>
@@ -120,9 +120,6 @@
     <t>Criterion</t>
   </si>
   <si>
-    <t>ปุณณวิชศ์ ทรัพย์เกิดผล</t>
-  </si>
-  <si>
     <t>PN1504</t>
   </si>
   <si>
@@ -150,9 +147,6 @@
     <t>HIGH ANXIETY</t>
   </si>
   <si>
-    <t>ธเนศพล นาคบำรุง</t>
-  </si>
-  <si>
     <t>PN1505</t>
   </si>
   <si>
@@ -166,9 +160,6 @@
   </si>
   <si>
     <t>Pearson Correlation</t>
-  </si>
-  <si>
-    <t>ญาณวีร์ บุญเรือง</t>
   </si>
   <si>
     <t>NP1515</t>
@@ -186,9 +177,6 @@
     <t>P(T&lt;=t) one-tail</t>
   </si>
   <si>
-    <t>ภาณิชา พานิชผล</t>
-  </si>
-  <si>
     <t>PN2403</t>
   </si>
   <si>
@@ -201,85 +189,40 @@
     <t>t Critical two-tail</t>
   </si>
   <si>
-    <t>ธีรภัทร ทองใบ</t>
-  </si>
-  <si>
     <t>PN1608</t>
-  </si>
-  <si>
-    <t>กานตี เถาวัลย์</t>
   </si>
   <si>
     <t>NP2412</t>
   </si>
   <si>
-    <t>ณฐวรรณ ชอุ่มกฤษ</t>
-  </si>
-  <si>
     <t>NP2620</t>
-  </si>
-  <si>
-    <t>ภูฉาย มิ่งขวัญ</t>
   </si>
   <si>
     <t>NP1514</t>
   </si>
   <si>
-    <t>พิชาญ คาคะวารี</t>
-  </si>
-  <si>
     <t>PN2507</t>
-  </si>
-  <si>
-    <t>พิชญา คาคะวารี</t>
-  </si>
-  <si>
-    <t>ณัฏฐพล จันทราชา</t>
   </si>
   <si>
     <t>PN1609</t>
   </si>
   <si>
-    <t>อภิสัณห์ จงเพิ่มวัฒนะผล</t>
-  </si>
-  <si>
     <t>NP1618</t>
-  </si>
-  <si>
-    <t>อาทิตยา ดิษโสภา</t>
   </si>
   <si>
     <t>NP2516</t>
   </si>
   <si>
-    <t>ทีฆทัศน์ วงศ์สืบสันตติ</t>
-  </si>
-  <si>
     <t>NP1619</t>
-  </si>
-  <si>
-    <t>ศศินภา เเซ่เล้า</t>
-  </si>
-  <si>
-    <t>กุลนิษฐ์ เพียรแก้ว</t>
   </si>
   <si>
     <t>NP2513</t>
   </si>
   <si>
-    <t>สุชาดา ไตรรงค์จิตเหมาะ</t>
-  </si>
-  <si>
     <t>NP2517</t>
   </si>
   <si>
-    <t>วรวลัญช์ แก้วดำรงค์</t>
-  </si>
-  <si>
     <t>PN2506</t>
-  </si>
-  <si>
-    <t>พาทิศ ผาสุขพันธ์</t>
   </si>
   <si>
     <t>NP1411</t>
@@ -369,58 +312,31 @@
     <t>LITTLE</t>
   </si>
   <si>
-    <t>ญาณวีร์ บุญเรือย</t>
-  </si>
-  <si>
     <t>EXTREME</t>
   </si>
   <si>
     <t>PN2402</t>
   </si>
   <si>
-    <t>รัตนประภา เอื้อจิตรเมต</t>
-  </si>
-  <si>
     <t>NP2428</t>
-  </si>
-  <si>
-    <t>รัญชน์ รัตนพงศ์เลิศ</t>
   </si>
   <si>
     <t>NP2525</t>
   </si>
   <si>
-    <t>นางสาว เอมิลี่ นารีลักษณ์ ชมิดท์</t>
-  </si>
-  <si>
     <t>PN2521</t>
-  </si>
-  <si>
-    <t>ภูริพัฒน์ ถัมภ์บรรฑุ</t>
   </si>
   <si>
     <t>PN1526</t>
   </si>
   <si>
-    <t>ภาสกร ศิษย์ปฐม</t>
-  </si>
-  <si>
     <t>PN1524</t>
-  </si>
-  <si>
-    <t>ปรียนิตย์ ตั้งปัญญพนต์</t>
   </si>
   <si>
     <t>PN2523</t>
   </si>
   <si>
-    <t>ศิรดา ริค้า</t>
-  </si>
-  <si>
     <t>NP2522</t>
-  </si>
-  <si>
-    <t>คมกฤช แสนศรี</t>
   </si>
   <si>
     <t>PN1427</t>
@@ -546,25 +462,13 @@
     <t>9/22/2023 20:59:37</t>
   </si>
   <si>
-    <t>นายเดชาภัค วังสถิตธรรม</t>
-  </si>
-  <si>
     <t>NP1429</t>
-  </si>
-  <si>
-    <t>ณัฐลักษณ์ วิทยาเกษมสันต์</t>
   </si>
   <si>
     <t>NP1530</t>
   </si>
   <si>
-    <t>ปัณฑภัทร ศิริศรีวัฒนาถาวร</t>
-  </si>
-  <si>
     <t>PN1501</t>
-  </si>
-  <si>
-    <t>สาริศา นิ่มไศละ</t>
   </si>
   <si>
     <t>PN2510</t>
@@ -2193,9 +2097,9 @@
   </sheetPr>
   <dimension ref="A1:AN121"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="74" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+    <sheetView zoomScale="106" zoomScaleNormal="74" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A87" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B92" sqref="B92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2295,11 +2199,9 @@
       <c r="A2" s="3">
         <v>45025.838738425926</v>
       </c>
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="40"/>
+      <c r="C2" s="4" t="s">
         <v>28</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>29</v>
       </c>
       <c r="D2" s="4">
         <v>1</v>
@@ -2379,7 +2281,7 @@
         <v>36</v>
       </c>
       <c r="AD2" s="37" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AE2" s="1"/>
       <c r="AF2" s="1"/>
@@ -2388,11 +2290,9 @@
       <c r="A3" s="6">
         <v>45025.847407407404</v>
       </c>
-      <c r="B3" s="41" t="s">
+      <c r="B3" s="41"/>
+      <c r="C3" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>29</v>
       </c>
       <c r="D3" s="1">
         <v>2</v>
@@ -2470,34 +2370,32 @@
         <v>31</v>
       </c>
       <c r="AD3" s="38" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="AE3" s="1"/>
       <c r="AF3" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG3" t="s">
         <v>32</v>
       </c>
-      <c r="AG3" t="s">
+      <c r="AI3" t="s">
         <v>33</v>
       </c>
-      <c r="AI3" t="s">
+      <c r="AJ3" t="s">
         <v>34</v>
       </c>
-      <c r="AJ3" t="s">
+      <c r="AL3" t="s">
         <v>35</v>
-      </c>
-      <c r="AL3" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:40" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>45025.860185185185</v>
       </c>
-      <c r="B4" s="41" t="s">
+      <c r="B4" s="41"/>
+      <c r="C4" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>29</v>
       </c>
       <c r="D4" s="1">
         <v>3</v>
@@ -2575,7 +2473,7 @@
         <v>27</v>
       </c>
       <c r="AD4" s="39" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AE4" s="1"/>
       <c r="AF4">
@@ -2595,11 +2493,9 @@
       <c r="A5" s="8">
         <v>45025.86824074074</v>
       </c>
-      <c r="B5" s="42" t="s">
+      <c r="B5" s="42"/>
+      <c r="C5" s="9" t="s">
         <v>28</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>29</v>
       </c>
       <c r="D5" s="9">
         <v>4</v>
@@ -2692,21 +2588,19 @@
       </c>
       <c r="AL5" s="17"/>
       <c r="AM5" s="17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AN5" s="17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:40" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>45055.839606481481</v>
       </c>
-      <c r="B6" s="40" t="s">
-        <v>38</v>
-      </c>
+      <c r="B6" s="40"/>
       <c r="C6" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D6" s="4">
         <v>1</v>
@@ -2798,7 +2692,7 @@
         <v>35</v>
       </c>
       <c r="AL6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AM6">
         <v>47.5</v>
@@ -2811,11 +2705,9 @@
       <c r="A7" s="6">
         <v>45055.849502314813</v>
       </c>
-      <c r="B7" s="41" t="s">
-        <v>38</v>
-      </c>
+      <c r="B7" s="41"/>
       <c r="C7" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D7" s="1">
         <v>2</v>
@@ -2905,7 +2797,7 @@
         <v>21</v>
       </c>
       <c r="AL7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="AM7">
         <v>212.5</v>
@@ -2918,11 +2810,9 @@
       <c r="A8" s="6">
         <v>45055.861516203702</v>
       </c>
-      <c r="B8" s="41" t="s">
-        <v>38</v>
-      </c>
+      <c r="B8" s="41"/>
       <c r="C8" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D8" s="1">
         <v>3</v>
@@ -3012,7 +2902,7 @@
         <v>29</v>
       </c>
       <c r="AL8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AM8">
         <v>10</v>
@@ -3025,11 +2915,9 @@
       <c r="A9" s="8">
         <v>45055.869837962964</v>
       </c>
-      <c r="B9" s="42" t="s">
-        <v>38</v>
-      </c>
+      <c r="B9" s="42"/>
       <c r="C9" s="9" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D9" s="9">
         <v>4</v>
@@ -3121,7 +3009,7 @@
         <v>40</v>
       </c>
       <c r="AL9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AM9">
         <v>0.68144848065450669</v>
@@ -3131,11 +3019,9 @@
       <c r="A10" s="3">
         <v>45055.881631944445</v>
       </c>
-      <c r="B10" s="40" t="s">
-        <v>44</v>
-      </c>
+      <c r="B10" s="40"/>
       <c r="C10" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D10" s="4">
         <v>1</v>
@@ -3227,7 +3113,7 @@
         <v>28</v>
       </c>
       <c r="AL10" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="AM10">
         <v>0</v>
@@ -3237,11 +3123,9 @@
       <c r="A11" s="6">
         <v>45055.889594907407</v>
       </c>
-      <c r="B11" s="41" t="s">
-        <v>44</v>
-      </c>
+      <c r="B11" s="41"/>
       <c r="C11" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D11" s="1">
         <v>2</v>
@@ -3331,7 +3215,7 @@
         <v>36</v>
       </c>
       <c r="AL11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="AM11">
         <v>9</v>
@@ -3341,11 +3225,9 @@
       <c r="A12" s="6">
         <v>45055.901990740742</v>
       </c>
-      <c r="B12" s="41" t="s">
-        <v>44</v>
-      </c>
+      <c r="B12" s="41"/>
       <c r="C12" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D12" s="1">
         <v>3</v>
@@ -3435,7 +3317,7 @@
         <v>39</v>
       </c>
       <c r="AL12" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="AM12">
         <v>2.3697706466227184</v>
@@ -3445,11 +3327,9 @@
       <c r="A13" s="8">
         <v>45055.909733796296</v>
       </c>
-      <c r="B13" s="42" t="s">
-        <v>44</v>
-      </c>
+      <c r="B13" s="42"/>
       <c r="C13" s="9" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D13" s="9">
         <v>4</v>
@@ -3541,7 +3421,7 @@
         <v>33</v>
       </c>
       <c r="AL13" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="AM13">
         <v>2.0962358838875855E-2</v>
@@ -3551,11 +3431,9 @@
       <c r="A14" s="3">
         <v>45086.834004629629</v>
       </c>
-      <c r="B14" s="40" t="s">
-        <v>50</v>
-      </c>
+      <c r="B14" s="40"/>
       <c r="C14" s="4" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D14" s="4">
         <v>1</v>
@@ -3635,7 +3513,7 @@
         <v>36</v>
       </c>
       <c r="AL14" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="AM14">
         <v>1.8331129326562374</v>
@@ -3645,11 +3523,9 @@
       <c r="A15" s="6">
         <v>45086.843692129631</v>
       </c>
-      <c r="B15" s="41" t="s">
-        <v>50</v>
-      </c>
+      <c r="B15" s="41"/>
       <c r="C15" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D15" s="1">
         <v>2</v>
@@ -3727,7 +3603,7 @@
         <v>28</v>
       </c>
       <c r="AL15" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="AM15">
         <v>4.1924717677751709E-2</v>
@@ -3737,11 +3613,9 @@
       <c r="A16" s="6">
         <v>45086.857152777775</v>
       </c>
-      <c r="B16" s="41" t="s">
-        <v>50</v>
-      </c>
+      <c r="B16" s="41"/>
       <c r="C16" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D16" s="1">
         <v>3</v>
@@ -3819,7 +3693,7 @@
         <v>31</v>
       </c>
       <c r="AL16" s="16" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="AM16" s="16">
         <v>2.2621571627982053</v>
@@ -3830,11 +3704,9 @@
       <c r="A17" s="8">
         <v>45086.866655092592</v>
       </c>
-      <c r="B17" s="42" t="s">
-        <v>50</v>
-      </c>
+      <c r="B17" s="42"/>
       <c r="C17" s="9" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D17" s="9">
         <v>4</v>
@@ -3918,11 +3790,9 @@
       <c r="A18" s="3">
         <v>45116.583935185183</v>
       </c>
-      <c r="B18" s="40" t="s">
-        <v>55</v>
-      </c>
+      <c r="B18" s="40"/>
       <c r="C18" s="4" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D18" s="4">
         <v>1</v>
@@ -4002,18 +3872,16 @@
         <v>61</v>
       </c>
       <c r="AL18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:40" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>45116.592233796298</v>
       </c>
-      <c r="B19" s="41" t="s">
-        <v>55</v>
-      </c>
+      <c r="B19" s="41"/>
       <c r="C19" s="1" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D19" s="1">
         <v>2</v>
@@ -4095,11 +3963,9 @@
       <c r="A20" s="6">
         <v>45116.604178240741</v>
       </c>
-      <c r="B20" s="41" t="s">
-        <v>55</v>
-      </c>
+      <c r="B20" s="41"/>
       <c r="C20" s="1" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D20" s="1">
         <v>3</v>
@@ -4178,21 +4044,19 @@
       </c>
       <c r="AL20" s="17"/>
       <c r="AM20" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="AN20" s="17" t="s">
         <v>34</v>
-      </c>
-      <c r="AN20" s="17" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:40" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A21" s="8">
         <v>45116.612962962965</v>
       </c>
-      <c r="B21" s="42" t="s">
-        <v>55</v>
-      </c>
+      <c r="B21" s="42"/>
       <c r="C21" s="9" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D21" s="9">
         <v>4</v>
@@ -4272,7 +4136,7 @@
         <v>49</v>
       </c>
       <c r="AL21" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AM21">
         <v>36.799999999999997</v>
@@ -4285,11 +4149,9 @@
       <c r="A22" s="3">
         <v>45116.668761574074</v>
       </c>
-      <c r="B22" s="40" t="s">
-        <v>57</v>
-      </c>
+      <c r="B22" s="40"/>
       <c r="C22" s="4" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="D22" s="4">
         <v>1</v>
@@ -4369,7 +4231,7 @@
         <v>54</v>
       </c>
       <c r="AL22" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="AM22">
         <v>165.51111111111115</v>
@@ -4382,11 +4244,9 @@
       <c r="A23" s="6">
         <v>45116.676539351851</v>
       </c>
-      <c r="B23" s="41" t="s">
-        <v>57</v>
-      </c>
+      <c r="B23" s="41"/>
       <c r="C23" s="1" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="D23" s="1">
         <v>2</v>
@@ -4464,7 +4324,7 @@
         <v>59</v>
       </c>
       <c r="AL23" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AM23">
         <v>10</v>
@@ -4477,11 +4337,9 @@
       <c r="A24" s="6">
         <v>45116.688750000001</v>
       </c>
-      <c r="B24" s="41" t="s">
-        <v>57</v>
-      </c>
+      <c r="B24" s="41"/>
       <c r="C24" s="1" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="D24" s="1">
         <v>3</v>
@@ -4559,7 +4417,7 @@
         <v>45</v>
       </c>
       <c r="AL24" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AM24">
         <v>0.49748182237913169</v>
@@ -4569,11 +4427,9 @@
       <c r="A25" s="8">
         <v>45116.696817129632</v>
       </c>
-      <c r="B25" s="42" t="s">
-        <v>57</v>
-      </c>
+      <c r="B25" s="42"/>
       <c r="C25" s="9" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="D25" s="9">
         <v>4</v>
@@ -4653,7 +4509,7 @@
         <v>32</v>
       </c>
       <c r="AL25" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="AM25">
         <v>0</v>
@@ -4663,11 +4519,9 @@
       <c r="A26" s="3">
         <v>45116.838402777779</v>
       </c>
-      <c r="B26" s="40" t="s">
-        <v>59</v>
-      </c>
+      <c r="B26" s="40"/>
       <c r="C26" s="4" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="D26" s="4">
         <v>1</v>
@@ -4747,7 +4601,7 @@
         <v>51</v>
       </c>
       <c r="AL26" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="AM26">
         <v>9</v>
@@ -4757,11 +4611,9 @@
       <c r="A27" s="6">
         <v>45116.846250000002</v>
       </c>
-      <c r="B27" s="41" t="s">
-        <v>59</v>
-      </c>
+      <c r="B27" s="41"/>
       <c r="C27" s="1" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="D27" s="1">
         <v>2</v>
@@ -4839,7 +4691,7 @@
         <v>61</v>
       </c>
       <c r="AL27" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="AM27">
         <v>1.2437342963832752</v>
@@ -4849,11 +4701,9 @@
       <c r="A28" s="6">
         <v>45116.860219907408</v>
       </c>
-      <c r="B28" s="41" t="s">
-        <v>59</v>
-      </c>
+      <c r="B28" s="41"/>
       <c r="C28" s="1" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="D28" s="1">
         <v>3</v>
@@ -4931,7 +4781,7 @@
         <v>48</v>
       </c>
       <c r="AL28" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="AM28">
         <v>0.12250818339952822</v>
@@ -4941,11 +4791,9 @@
       <c r="A29" s="8">
         <v>45116.868148148147</v>
       </c>
-      <c r="B29" s="42" t="s">
-        <v>59</v>
-      </c>
+      <c r="B29" s="42"/>
       <c r="C29" s="9" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="D29" s="9">
         <v>4</v>
@@ -5025,7 +4873,7 @@
         <v>35</v>
       </c>
       <c r="AL29" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="AM29">
         <v>1.8331129326562374</v>
@@ -5035,11 +4883,9 @@
       <c r="A30" s="3">
         <v>45116.881608796299</v>
       </c>
-      <c r="B30" s="40" t="s">
-        <v>61</v>
-      </c>
+      <c r="B30" s="40"/>
       <c r="C30" s="4" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="D30" s="4">
         <v>1</v>
@@ -5119,7 +4965,7 @@
         <v>20</v>
       </c>
       <c r="AL30" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="AM30">
         <v>0.24501636679905645</v>
@@ -5129,11 +4975,9 @@
       <c r="A31" s="6">
         <v>45116.88925925926</v>
       </c>
-      <c r="B31" s="41" t="s">
-        <v>61</v>
-      </c>
+      <c r="B31" s="41"/>
       <c r="C31" s="1" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="D31" s="1">
         <v>2</v>
@@ -5211,7 +5055,7 @@
         <v>22</v>
       </c>
       <c r="AL31" s="16" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="AM31" s="16">
         <v>2.2621571627982053</v>
@@ -5222,11 +5066,9 @@
       <c r="A32" s="6">
         <v>45116.900902777779</v>
       </c>
-      <c r="B32" s="41" t="s">
-        <v>61</v>
-      </c>
+      <c r="B32" s="41"/>
       <c r="C32" s="1" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="D32" s="1">
         <v>3</v>
@@ -5308,11 +5150,9 @@
       <c r="A33" s="8">
         <v>45116.908206018517</v>
       </c>
-      <c r="B33" s="42" t="s">
-        <v>61</v>
-      </c>
+      <c r="B33" s="42"/>
       <c r="C33" s="9" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="D33" s="9">
         <v>4</v>
@@ -5396,11 +5236,9 @@
       <c r="A34" s="3">
         <v>45147.844537037039</v>
       </c>
-      <c r="B34" s="40" t="s">
-        <v>63</v>
-      </c>
+      <c r="B34" s="40"/>
       <c r="C34" s="4" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="D34" s="4">
         <v>1</v>
@@ -5484,11 +5322,9 @@
       <c r="A35" s="6">
         <v>45147.852465277778</v>
       </c>
-      <c r="B35" s="41" t="s">
-        <v>65</v>
-      </c>
+      <c r="B35" s="41"/>
       <c r="C35" s="1" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="D35" s="1">
         <v>2</v>
@@ -5570,11 +5406,9 @@
       <c r="A36" s="6">
         <v>45147.864282407405</v>
       </c>
-      <c r="B36" s="41" t="s">
-        <v>65</v>
-      </c>
+      <c r="B36" s="41"/>
       <c r="C36" s="1" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="D36" s="1">
         <v>3</v>
@@ -5656,11 +5490,9 @@
       <c r="A37" s="8">
         <v>45147.872372685182</v>
       </c>
-      <c r="B37" s="42" t="s">
-        <v>65</v>
-      </c>
+      <c r="B37" s="42"/>
       <c r="C37" s="9" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="D37" s="9">
         <v>4</v>
@@ -5744,11 +5576,9 @@
       <c r="A38" s="3">
         <v>45178.84101851852</v>
       </c>
-      <c r="B38" s="40" t="s">
-        <v>66</v>
-      </c>
+      <c r="B38" s="40"/>
       <c r="C38" s="4" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="D38" s="4">
         <v>1</v>
@@ -5832,11 +5662,9 @@
       <c r="A39" s="6">
         <v>45178.849108796298</v>
       </c>
-      <c r="B39" s="41" t="s">
-        <v>66</v>
-      </c>
+      <c r="B39" s="41"/>
       <c r="C39" s="1" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="D39" s="1">
         <v>2</v>
@@ -5918,11 +5746,9 @@
       <c r="A40" s="6">
         <v>45178.862627314818</v>
       </c>
-      <c r="B40" s="41" t="s">
-        <v>66</v>
-      </c>
+      <c r="B40" s="41"/>
       <c r="C40" s="1" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="D40" s="1">
         <v>3</v>
@@ -6004,11 +5830,9 @@
       <c r="A41" s="8">
         <v>45178.871412037035</v>
       </c>
-      <c r="B41" s="42" t="s">
-        <v>66</v>
-      </c>
+      <c r="B41" s="42"/>
       <c r="C41" s="9" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="D41" s="9">
         <v>4</v>
@@ -6092,11 +5916,9 @@
       <c r="A42" s="15">
         <v>45178.884166666663</v>
       </c>
-      <c r="B42" s="41" t="s">
-        <v>68</v>
-      </c>
+      <c r="B42" s="41"/>
       <c r="C42" s="1" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="D42" s="1">
         <v>1</v>
@@ -6178,11 +6000,9 @@
       <c r="A43" s="15">
         <v>45178.892951388887</v>
       </c>
-      <c r="B43" s="43" t="s">
-        <v>68</v>
-      </c>
+      <c r="B43" s="43"/>
       <c r="C43" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="D43">
         <v>2</v>
@@ -6264,11 +6084,9 @@
       <c r="A44" s="15">
         <v>45178.904953703706</v>
       </c>
-      <c r="B44" s="43" t="s">
-        <v>68</v>
-      </c>
+      <c r="B44" s="43"/>
       <c r="C44" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="D44">
         <v>3</v>
@@ -6350,11 +6168,9 @@
       <c r="A45" s="33">
         <v>45178.912719907406</v>
       </c>
-      <c r="B45" s="44" t="s">
-        <v>68</v>
-      </c>
+      <c r="B45" s="44"/>
       <c r="C45" s="34" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="D45" s="34">
         <v>4</v>
@@ -6438,11 +6254,9 @@
       <c r="A46" s="15">
         <v>45208.84447916667</v>
       </c>
-      <c r="B46" s="41" t="s">
-        <v>70</v>
-      </c>
+      <c r="B46" s="41"/>
       <c r="C46" s="1" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="D46" s="1">
         <v>1</v>
@@ -6524,11 +6338,9 @@
       <c r="A47" s="15">
         <v>45208.852534722224</v>
       </c>
-      <c r="B47" s="43" t="s">
-        <v>70</v>
-      </c>
+      <c r="B47" s="43"/>
       <c r="C47" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="D47">
         <v>2</v>
@@ -6610,11 +6422,9 @@
       <c r="A48" s="15">
         <v>45208.864502314813</v>
       </c>
-      <c r="B48" s="43" t="s">
-        <v>70</v>
-      </c>
+      <c r="B48" s="43"/>
       <c r="C48" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="D48">
         <v>3</v>
@@ -6696,11 +6506,9 @@
       <c r="A49" s="33">
         <v>45208.872511574074</v>
       </c>
-      <c r="B49" s="44" t="s">
-        <v>70</v>
-      </c>
+      <c r="B49" s="44"/>
       <c r="C49" s="34" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="D49" s="34">
         <v>4</v>
@@ -6784,11 +6592,9 @@
       <c r="A50" s="15">
         <v>45208.880254629628</v>
       </c>
-      <c r="B50" s="41" t="s">
-        <v>72</v>
-      </c>
+      <c r="B50" s="41"/>
       <c r="C50" s="1" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="D50" s="1">
         <v>1</v>
@@ -6870,11 +6676,9 @@
       <c r="A51" s="15">
         <v>45208.888622685183</v>
       </c>
-      <c r="B51" s="43" t="s">
-        <v>72</v>
-      </c>
+      <c r="B51" s="43"/>
       <c r="C51" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="D51">
         <v>2</v>
@@ -6956,11 +6760,9 @@
       <c r="A52" s="15">
         <v>45208.902384259258</v>
       </c>
-      <c r="B52" s="43" t="s">
-        <v>72</v>
-      </c>
+      <c r="B52" s="43"/>
       <c r="C52" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="D52">
         <v>3</v>
@@ -7042,11 +6844,9 @@
       <c r="A53" s="33">
         <v>45208.910150462965</v>
       </c>
-      <c r="B53" s="44" t="s">
-        <v>72</v>
-      </c>
+      <c r="B53" s="44"/>
       <c r="C53" s="34" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="D53" s="34">
         <v>4</v>
@@ -7128,13 +6928,11 @@
     </row>
     <row r="54" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A54" s="15" t="s">
-        <v>150</v>
-      </c>
-      <c r="B54" s="41" t="s">
-        <v>74</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="B54" s="41"/>
       <c r="C54" s="1" t="s">
-        <v>113</v>
+        <v>93</v>
       </c>
       <c r="D54" s="1">
         <v>1</v>
@@ -7214,13 +7012,11 @@
     </row>
     <row r="55" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A55" s="15" t="s">
-        <v>151</v>
-      </c>
-      <c r="B55" s="43" t="s">
-        <v>74</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="B55" s="43"/>
       <c r="C55" t="s">
-        <v>113</v>
+        <v>93</v>
       </c>
       <c r="D55">
         <v>2</v>
@@ -7300,13 +7096,11 @@
     </row>
     <row r="56" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A56" s="15" t="s">
-        <v>152</v>
-      </c>
-      <c r="B56" s="43" t="s">
-        <v>74</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="B56" s="43"/>
       <c r="C56" t="s">
-        <v>113</v>
+        <v>93</v>
       </c>
       <c r="D56">
         <v>3</v>
@@ -7386,13 +7180,11 @@
     </row>
     <row r="57" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A57" s="33" t="s">
-        <v>153</v>
-      </c>
-      <c r="B57" s="44" t="s">
-        <v>74</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="B57" s="44"/>
       <c r="C57" s="34" t="s">
-        <v>113</v>
+        <v>93</v>
       </c>
       <c r="D57" s="34">
         <v>4</v>
@@ -7474,13 +7266,11 @@
     </row>
     <row r="58" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A58" s="15" t="s">
-        <v>154</v>
-      </c>
-      <c r="B58" s="41" t="s">
-        <v>75</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="B58" s="41"/>
       <c r="C58" s="1" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="D58" s="1">
         <v>1</v>
@@ -7560,13 +7350,11 @@
     </row>
     <row r="59" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A59" s="15" t="s">
-        <v>155</v>
-      </c>
-      <c r="B59" s="43" t="s">
-        <v>75</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="B59" s="43"/>
       <c r="C59" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="D59">
         <v>2</v>
@@ -7646,13 +7434,11 @@
     </row>
     <row r="60" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A60" s="15" t="s">
-        <v>156</v>
-      </c>
-      <c r="B60" s="43" t="s">
-        <v>75</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="B60" s="43"/>
       <c r="C60" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="D60">
         <v>3</v>
@@ -7732,13 +7518,11 @@
     </row>
     <row r="61" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A61" s="33" t="s">
-        <v>157</v>
-      </c>
-      <c r="B61" s="44" t="s">
-        <v>75</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="B61" s="44"/>
       <c r="C61" s="34" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="D61" s="34">
         <v>4</v>
@@ -7820,13 +7604,11 @@
     </row>
     <row r="62" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A62" s="15" t="s">
-        <v>158</v>
-      </c>
-      <c r="B62" s="41" t="s">
-        <v>77</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="B62" s="41"/>
       <c r="C62" s="1" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="D62" s="1">
         <v>1</v>
@@ -7906,13 +7688,11 @@
     </row>
     <row r="63" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A63" s="15" t="s">
-        <v>159</v>
-      </c>
-      <c r="B63" s="43" t="s">
-        <v>77</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="B63" s="43"/>
       <c r="C63" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="D63">
         <v>2</v>
@@ -7992,13 +7772,11 @@
     </row>
     <row r="64" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A64" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="B64" s="43" t="s">
-        <v>77</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="B64" s="43"/>
       <c r="C64" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="D64">
         <v>3</v>
@@ -8078,13 +7856,11 @@
     </row>
     <row r="65" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A65" s="33" t="s">
-        <v>161</v>
-      </c>
-      <c r="B65" s="44" t="s">
-        <v>77</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="B65" s="44"/>
       <c r="C65" s="34" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="D65" s="34">
         <v>4</v>
@@ -8166,13 +7942,11 @@
     </row>
     <row r="66" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A66" s="15" t="s">
-        <v>162</v>
-      </c>
-      <c r="B66" s="41" t="s">
-        <v>79</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="B66" s="41"/>
       <c r="C66" s="1" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="D66" s="1">
         <v>1</v>
@@ -8252,13 +8026,11 @@
     </row>
     <row r="67" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A67" s="15" t="s">
-        <v>163</v>
-      </c>
-      <c r="B67" s="43" t="s">
-        <v>79</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="B67" s="43"/>
       <c r="C67" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="D67">
         <v>2</v>
@@ -8338,13 +8110,11 @@
     </row>
     <row r="68" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A68" s="15" t="s">
-        <v>164</v>
-      </c>
-      <c r="B68" s="43" t="s">
-        <v>79</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="B68" s="43"/>
       <c r="C68" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="D68">
         <v>3</v>
@@ -8424,13 +8194,11 @@
     </row>
     <row r="69" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A69" s="33" t="s">
-        <v>165</v>
-      </c>
-      <c r="B69" s="44" t="s">
-        <v>79</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="B69" s="44"/>
       <c r="C69" s="34" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="D69" s="34">
         <v>4</v>
@@ -8512,13 +8280,11 @@
     </row>
     <row r="70" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A70" s="15" t="s">
-        <v>166</v>
-      </c>
-      <c r="B70" s="41" t="s">
-        <v>81</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="B70" s="41"/>
       <c r="C70" s="1" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="D70" s="1">
         <v>1</v>
@@ -8598,13 +8364,11 @@
     </row>
     <row r="71" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A71" s="15" t="s">
-        <v>167</v>
-      </c>
-      <c r="B71" s="43" t="s">
-        <v>81</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="B71" s="43"/>
       <c r="C71" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="D71">
         <v>2</v>
@@ -8684,13 +8448,11 @@
     </row>
     <row r="72" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A72" s="15" t="s">
-        <v>168</v>
-      </c>
-      <c r="B72" s="43" t="s">
-        <v>81</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="B72" s="43"/>
       <c r="C72" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="D72">
         <v>3</v>
@@ -8770,13 +8532,11 @@
     </row>
     <row r="73" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A73" s="33" t="s">
-        <v>169</v>
-      </c>
-      <c r="B73" s="44" t="s">
-        <v>81</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="B73" s="44"/>
       <c r="C73" s="34" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="D73" s="34">
         <v>4</v>
@@ -8858,13 +8618,11 @@
     </row>
     <row r="74" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="15" t="s">
-        <v>130</v>
-      </c>
-      <c r="B74" s="41" t="s">
-        <v>116</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="B74" s="41"/>
       <c r="C74" s="1" t="s">
-        <v>117</v>
+        <v>95</v>
       </c>
       <c r="D74" s="1">
         <v>1</v>
@@ -8944,13 +8702,11 @@
     </row>
     <row r="75" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="15" t="s">
-        <v>131</v>
-      </c>
-      <c r="B75" s="43" t="s">
-        <v>116</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="B75" s="43"/>
       <c r="C75" t="s">
-        <v>117</v>
+        <v>95</v>
       </c>
       <c r="D75">
         <v>2</v>
@@ -9030,13 +8786,11 @@
     </row>
     <row r="76" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="15" t="s">
-        <v>132</v>
-      </c>
-      <c r="B76" s="43" t="s">
-        <v>116</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="B76" s="43"/>
       <c r="C76" t="s">
-        <v>117</v>
+        <v>95</v>
       </c>
       <c r="D76">
         <v>3</v>
@@ -9116,13 +8870,11 @@
     </row>
     <row r="77" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="33" t="s">
-        <v>133</v>
-      </c>
-      <c r="B77" s="44" t="s">
-        <v>116</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="B77" s="44"/>
       <c r="C77" s="34" t="s">
-        <v>117</v>
+        <v>95</v>
       </c>
       <c r="D77" s="34">
         <v>4</v>
@@ -9204,13 +8956,11 @@
     </row>
     <row r="78" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="15" t="s">
-        <v>134</v>
-      </c>
-      <c r="B78" s="41" t="s">
-        <v>118</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="B78" s="41"/>
       <c r="C78" s="1" t="s">
-        <v>119</v>
+        <v>96</v>
       </c>
       <c r="D78" s="1">
         <v>1</v>
@@ -9290,13 +9040,11 @@
     </row>
     <row r="79" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="15" t="s">
-        <v>135</v>
-      </c>
-      <c r="B79" s="43" t="s">
-        <v>118</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="B79" s="43"/>
       <c r="C79" t="s">
-        <v>119</v>
+        <v>96</v>
       </c>
       <c r="D79">
         <v>2</v>
@@ -9376,13 +9124,11 @@
     </row>
     <row r="80" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="B80" s="43" t="s">
-        <v>118</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="B80" s="43"/>
       <c r="C80" t="s">
-        <v>119</v>
+        <v>96</v>
       </c>
       <c r="D80">
         <v>3</v>
@@ -9462,13 +9208,11 @@
     </row>
     <row r="81" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="33" t="s">
-        <v>137</v>
-      </c>
-      <c r="B81" s="44" t="s">
-        <v>118</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="B81" s="44"/>
       <c r="C81" s="34" t="s">
-        <v>119</v>
+        <v>96</v>
       </c>
       <c r="D81" s="34">
         <v>4</v>
@@ -9550,13 +9294,11 @@
     </row>
     <row r="82" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="15" t="s">
-        <v>138</v>
-      </c>
-      <c r="B82" s="41" t="s">
-        <v>120</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="B82" s="41"/>
       <c r="C82" s="1" t="s">
-        <v>121</v>
+        <v>97</v>
       </c>
       <c r="D82" s="1">
         <v>1</v>
@@ -9636,13 +9378,11 @@
     </row>
     <row r="83" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="15" t="s">
-        <v>139</v>
-      </c>
-      <c r="B83" s="43" t="s">
-        <v>120</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="B83" s="43"/>
       <c r="C83" t="s">
-        <v>121</v>
+        <v>97</v>
       </c>
       <c r="D83">
         <v>2</v>
@@ -9722,13 +9462,11 @@
     </row>
     <row r="84" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="15" t="s">
-        <v>140</v>
-      </c>
-      <c r="B84" s="43" t="s">
-        <v>120</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="B84" s="43"/>
       <c r="C84" t="s">
-        <v>121</v>
+        <v>97</v>
       </c>
       <c r="D84">
         <v>3</v>
@@ -9808,13 +9546,11 @@
     </row>
     <row r="85" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="33" t="s">
-        <v>141</v>
-      </c>
-      <c r="B85" s="44" t="s">
-        <v>120</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="B85" s="44"/>
       <c r="C85" s="34" t="s">
-        <v>121</v>
+        <v>97</v>
       </c>
       <c r="D85" s="34">
         <v>4</v>
@@ -9896,13 +9632,11 @@
     </row>
     <row r="86" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="B86" s="41" t="s">
-        <v>122</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="B86" s="41"/>
       <c r="C86" s="1" t="s">
-        <v>123</v>
+        <v>98</v>
       </c>
       <c r="D86" s="1">
         <v>1</v>
@@ -9982,13 +9716,11 @@
     </row>
     <row r="87" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="15" t="s">
-        <v>143</v>
-      </c>
-      <c r="B87" s="43" t="s">
-        <v>122</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="B87" s="43"/>
       <c r="C87" t="s">
-        <v>123</v>
+        <v>98</v>
       </c>
       <c r="D87">
         <v>2</v>
@@ -10068,13 +9800,11 @@
     </row>
     <row r="88" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="15" t="s">
-        <v>144</v>
-      </c>
-      <c r="B88" s="43" t="s">
-        <v>122</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="B88" s="43"/>
       <c r="C88" t="s">
-        <v>123</v>
+        <v>98</v>
       </c>
       <c r="D88">
         <v>3</v>
@@ -10154,13 +9884,11 @@
     </row>
     <row r="89" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="33" t="s">
-        <v>145</v>
-      </c>
-      <c r="B89" s="44" t="s">
-        <v>122</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="B89" s="44"/>
       <c r="C89" s="34" t="s">
-        <v>123</v>
+        <v>98</v>
       </c>
       <c r="D89" s="34">
         <v>4</v>
@@ -10242,13 +9970,11 @@
     </row>
     <row r="90" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="15" t="s">
-        <v>146</v>
-      </c>
-      <c r="B90" s="41" t="s">
-        <v>124</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="B90" s="41"/>
       <c r="C90" s="1" t="s">
-        <v>125</v>
+        <v>99</v>
       </c>
       <c r="D90" s="1">
         <v>1</v>
@@ -10328,13 +10054,11 @@
     </row>
     <row r="91" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="15" t="s">
-        <v>147</v>
-      </c>
-      <c r="B91" s="43" t="s">
-        <v>124</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="B91" s="43"/>
       <c r="C91" t="s">
-        <v>125</v>
+        <v>99</v>
       </c>
       <c r="D91">
         <v>2</v>
@@ -10414,13 +10138,11 @@
     </row>
     <row r="92" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="15" t="s">
-        <v>148</v>
-      </c>
-      <c r="B92" s="43" t="s">
-        <v>124</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="B92" s="43"/>
       <c r="C92" t="s">
-        <v>125</v>
+        <v>99</v>
       </c>
       <c r="D92">
         <v>3</v>
@@ -10500,13 +10222,11 @@
     </row>
     <row r="93" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="33" t="s">
-        <v>149</v>
-      </c>
-      <c r="B93" s="44" t="s">
-        <v>124</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="B93" s="44"/>
       <c r="C93" s="34" t="s">
-        <v>125</v>
+        <v>99</v>
       </c>
       <c r="D93" s="34">
         <v>4</v>
@@ -10590,11 +10310,9 @@
       <c r="A94" s="15">
         <v>44938.878680555557</v>
       </c>
-      <c r="B94" s="41" t="s">
-        <v>126</v>
-      </c>
+      <c r="B94" s="41"/>
       <c r="C94" s="1" t="s">
-        <v>127</v>
+        <v>100</v>
       </c>
       <c r="D94" s="1">
         <v>1</v>
@@ -10676,11 +10394,9 @@
       <c r="A95" s="15">
         <v>44938.886678240742</v>
       </c>
-      <c r="B95" s="43" t="s">
-        <v>126</v>
-      </c>
+      <c r="B95" s="43"/>
       <c r="C95" t="s">
-        <v>127</v>
+        <v>100</v>
       </c>
       <c r="D95">
         <v>2</v>
@@ -10762,11 +10478,9 @@
       <c r="A96" s="15">
         <v>44938.898888888885</v>
       </c>
-      <c r="B96" s="43" t="s">
-        <v>126</v>
-      </c>
+      <c r="B96" s="43"/>
       <c r="C96" t="s">
-        <v>127</v>
+        <v>100</v>
       </c>
       <c r="D96">
         <v>3</v>
@@ -10848,11 +10562,9 @@
       <c r="A97" s="33">
         <v>44938.906678240739</v>
       </c>
-      <c r="B97" s="44" t="s">
-        <v>126</v>
-      </c>
+      <c r="B97" s="44"/>
       <c r="C97" s="34" t="s">
-        <v>127</v>
+        <v>100</v>
       </c>
       <c r="D97" s="34">
         <v>4</v>
@@ -10936,11 +10648,9 @@
       <c r="A98" s="15">
         <v>45028.83792824074</v>
       </c>
-      <c r="B98" s="41" t="s">
-        <v>128</v>
-      </c>
+      <c r="B98" s="41"/>
       <c r="C98" s="1" t="s">
-        <v>129</v>
+        <v>101</v>
       </c>
       <c r="D98" s="1">
         <v>1</v>
@@ -11022,11 +10732,9 @@
       <c r="A99" s="15">
         <v>45028.845578703702</v>
       </c>
-      <c r="B99" s="43" t="s">
-        <v>128</v>
-      </c>
+      <c r="B99" s="43"/>
       <c r="C99" t="s">
-        <v>129</v>
+        <v>101</v>
       </c>
       <c r="D99">
         <v>2</v>
@@ -11108,11 +10816,9 @@
       <c r="A100" s="15">
         <v>45028.858819444446</v>
       </c>
-      <c r="B100" s="43" t="s">
-        <v>128</v>
-      </c>
+      <c r="B100" s="43"/>
       <c r="C100" t="s">
-        <v>129</v>
+        <v>101</v>
       </c>
       <c r="D100">
         <v>3</v>
@@ -11194,11 +10900,9 @@
       <c r="A101" s="33">
         <v>45028.866180555553</v>
       </c>
-      <c r="B101" s="44" t="s">
-        <v>128</v>
-      </c>
+      <c r="B101" s="44"/>
       <c r="C101" s="34" t="s">
-        <v>129</v>
+        <v>101</v>
       </c>
       <c r="D101" s="34">
         <v>4</v>
@@ -11282,11 +10986,9 @@
       <c r="A102" s="15">
         <v>45028.884236111109</v>
       </c>
-      <c r="B102" s="41" t="s">
-        <v>114</v>
-      </c>
+      <c r="B102" s="41"/>
       <c r="C102" s="1" t="s">
-        <v>115</v>
+        <v>94</v>
       </c>
       <c r="D102" s="1">
         <v>1</v>
@@ -11368,11 +11070,9 @@
       <c r="A103" s="15">
         <v>45028.893865740742</v>
       </c>
-      <c r="B103" s="43" t="s">
-        <v>114</v>
-      </c>
+      <c r="B103" s="43"/>
       <c r="C103" t="s">
-        <v>115</v>
+        <v>94</v>
       </c>
       <c r="D103">
         <v>2</v>
@@ -11454,11 +11154,9 @@
       <c r="A104" s="15">
         <v>45028.907858796294</v>
       </c>
-      <c r="B104" s="43" t="s">
-        <v>114</v>
-      </c>
+      <c r="B104" s="43"/>
       <c r="C104" t="s">
-        <v>115</v>
+        <v>94</v>
       </c>
       <c r="D104">
         <v>3</v>
@@ -11540,11 +11238,9 @@
       <c r="A105" s="33">
         <v>45028.915972222225</v>
       </c>
-      <c r="B105" s="44" t="s">
-        <v>114</v>
-      </c>
+      <c r="B105" s="44"/>
       <c r="C105" s="34" t="s">
-        <v>115</v>
+        <v>94</v>
       </c>
       <c r="D105" s="34">
         <v>4</v>
@@ -11628,11 +11324,9 @@
       <c r="A106" s="15">
         <v>45058.834247685183</v>
       </c>
-      <c r="B106" s="41" t="s">
-        <v>170</v>
-      </c>
+      <c r="B106" s="41"/>
       <c r="C106" s="1" t="s">
-        <v>171</v>
+        <v>142</v>
       </c>
       <c r="D106" s="1">
         <v>1</v>
@@ -11714,11 +11408,9 @@
       <c r="A107" s="15">
         <v>45058.84275462963</v>
       </c>
-      <c r="B107" s="43" t="s">
-        <v>170</v>
-      </c>
+      <c r="B107" s="43"/>
       <c r="C107" t="s">
-        <v>171</v>
+        <v>142</v>
       </c>
       <c r="D107">
         <v>2</v>
@@ -11800,11 +11492,9 @@
       <c r="A108" s="15">
         <v>45058.848969907405</v>
       </c>
-      <c r="B108" s="43" t="s">
-        <v>170</v>
-      </c>
+      <c r="B108" s="43"/>
       <c r="C108" t="s">
-        <v>171</v>
+        <v>142</v>
       </c>
       <c r="D108">
         <v>3</v>
@@ -11886,11 +11576,9 @@
       <c r="A109" s="33">
         <v>45058.862858796296</v>
       </c>
-      <c r="B109" s="44" t="s">
-        <v>170</v>
-      </c>
+      <c r="B109" s="44"/>
       <c r="C109" s="34" t="s">
-        <v>171</v>
+        <v>142</v>
       </c>
       <c r="D109" s="34">
         <v>4</v>
@@ -11974,11 +11662,9 @@
       <c r="A110" s="15">
         <v>45119.844317129631</v>
       </c>
-      <c r="B110" s="41" t="s">
-        <v>172</v>
-      </c>
+      <c r="B110" s="41"/>
       <c r="C110" s="1" t="s">
-        <v>173</v>
+        <v>143</v>
       </c>
       <c r="D110" s="1">
         <v>1</v>
@@ -12060,11 +11746,9 @@
       <c r="A111" s="15">
         <v>45119.85224537037</v>
       </c>
-      <c r="B111" s="41" t="s">
-        <v>172</v>
-      </c>
+      <c r="B111" s="41"/>
       <c r="C111" t="s">
-        <v>173</v>
+        <v>143</v>
       </c>
       <c r="D111">
         <v>2</v>
@@ -12146,11 +11830,9 @@
       <c r="A112" s="15">
         <v>45119.864444444444</v>
       </c>
-      <c r="B112" s="43" t="s">
-        <v>172</v>
-      </c>
+      <c r="B112" s="43"/>
       <c r="C112" t="s">
-        <v>173</v>
+        <v>143</v>
       </c>
       <c r="D112">
         <v>3</v>
@@ -12232,11 +11914,9 @@
       <c r="A113" s="33">
         <v>45119.872719907406</v>
       </c>
-      <c r="B113" s="44" t="s">
-        <v>172</v>
-      </c>
+      <c r="B113" s="44"/>
       <c r="C113" s="34" t="s">
-        <v>173</v>
+        <v>143</v>
       </c>
       <c r="D113" s="34">
         <v>4</v>
@@ -12320,11 +12000,9 @@
       <c r="A114" s="15">
         <v>45119.888460648152</v>
       </c>
-      <c r="B114" s="41" t="s">
-        <v>174</v>
-      </c>
+      <c r="B114" s="41"/>
       <c r="C114" s="1" t="s">
-        <v>175</v>
+        <v>144</v>
       </c>
       <c r="D114" s="1">
         <v>1</v>
@@ -12406,11 +12084,9 @@
       <c r="A115" s="15">
         <v>45119.896238425928</v>
       </c>
-      <c r="B115" s="43" t="s">
-        <v>174</v>
-      </c>
+      <c r="B115" s="43"/>
       <c r="C115" t="s">
-        <v>175</v>
+        <v>144</v>
       </c>
       <c r="D115">
         <v>2</v>
@@ -12492,11 +12168,9 @@
       <c r="A116" s="15">
         <v>45119.908831018518</v>
       </c>
-      <c r="B116" s="43" t="s">
-        <v>174</v>
-      </c>
+      <c r="B116" s="43"/>
       <c r="C116" t="s">
-        <v>175</v>
+        <v>144</v>
       </c>
       <c r="D116">
         <v>3</v>
@@ -12578,11 +12252,9 @@
       <c r="A117" s="33">
         <v>45119.916250000002</v>
       </c>
-      <c r="B117" s="44" t="s">
-        <v>174</v>
-      </c>
+      <c r="B117" s="44"/>
       <c r="C117" s="34" t="s">
-        <v>175</v>
+        <v>144</v>
       </c>
       <c r="D117" s="34">
         <v>4</v>
@@ -12666,11 +12338,9 @@
       <c r="A118" s="15">
         <v>45242.797465277778</v>
       </c>
-      <c r="B118" s="41" t="s">
-        <v>176</v>
-      </c>
+      <c r="B118" s="41"/>
       <c r="C118" s="1" t="s">
-        <v>177</v>
+        <v>145</v>
       </c>
       <c r="D118" s="1">
         <v>1</v>
@@ -12752,11 +12422,9 @@
       <c r="A119" s="15">
         <v>45242.805196759262</v>
       </c>
-      <c r="B119" s="43" t="s">
-        <v>176</v>
-      </c>
+      <c r="B119" s="43"/>
       <c r="C119" t="s">
-        <v>177</v>
+        <v>145</v>
       </c>
       <c r="D119">
         <v>2</v>
@@ -12838,11 +12506,9 @@
       <c r="A120" s="15">
         <v>45242.825833333336</v>
       </c>
-      <c r="B120" s="43" t="s">
-        <v>176</v>
-      </c>
+      <c r="B120" s="43"/>
       <c r="C120" t="s">
-        <v>177</v>
+        <v>145</v>
       </c>
       <c r="D120">
         <v>3</v>
@@ -12924,11 +12590,9 @@
       <c r="A121" s="33">
         <v>45242.833715277775</v>
       </c>
-      <c r="B121" s="44" t="s">
-        <v>176</v>
-      </c>
+      <c r="B121" s="44"/>
       <c r="C121" s="34" t="s">
-        <v>177</v>
+        <v>145</v>
       </c>
       <c r="D121" s="34">
         <v>4</v>
@@ -13033,8 +12697,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63F4A2AC-71C3-4539-B4CD-2DA78B1729C9}">
   <dimension ref="A1:AD26"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -13063,78 +12727,78 @@
         <v>2</v>
       </c>
       <c r="D1" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="F1" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="G1" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="H1" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="I1" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="J1" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="K1" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="L1" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="M1" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="N1" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="O1" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="P1" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q1" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="R1" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="S1" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="T1" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="U1" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="V1" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="W1" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="X1" s="20" t="s">
         <v>86</v>
-      </c>
-      <c r="F1" s="19" t="s">
-        <v>87</v>
-      </c>
-      <c r="G1" s="19" t="s">
-        <v>88</v>
-      </c>
-      <c r="H1" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="I1" s="19" t="s">
-        <v>90</v>
-      </c>
-      <c r="J1" s="19" t="s">
-        <v>91</v>
-      </c>
-      <c r="K1" s="19" t="s">
-        <v>92</v>
-      </c>
-      <c r="L1" s="19" t="s">
-        <v>93</v>
-      </c>
-      <c r="M1" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="N1" s="19" t="s">
-        <v>95</v>
-      </c>
-      <c r="O1" s="19" t="s">
-        <v>96</v>
-      </c>
-      <c r="P1" s="19" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q1" s="19" t="s">
-        <v>98</v>
-      </c>
-      <c r="R1" s="19" t="s">
-        <v>99</v>
-      </c>
-      <c r="S1" s="19" t="s">
-        <v>100</v>
-      </c>
-      <c r="T1" s="19" t="s">
-        <v>101</v>
-      </c>
-      <c r="U1" s="19" t="s">
-        <v>102</v>
-      </c>
-      <c r="V1" s="19" t="s">
-        <v>103</v>
-      </c>
-      <c r="W1" s="19" t="s">
-        <v>104</v>
-      </c>
-      <c r="X1" s="20" t="s">
-        <v>105</v>
       </c>
       <c r="Y1" s="18"/>
       <c r="Z1" s="18"/>
       <c r="AA1" s="19" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="AB1" s="19" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
       <c r="AC1" s="19" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="AD1" s="19" t="s">
         <v>27</v>
@@ -13144,11 +12808,9 @@
       <c r="A2" s="21">
         <v>45173.816064814811</v>
       </c>
-      <c r="B2" s="45" t="s">
+      <c r="B2" s="45"/>
+      <c r="C2" s="18" t="s">
         <v>28</v>
-      </c>
-      <c r="C2" s="18" t="s">
-        <v>29</v>
       </c>
       <c r="D2" s="22">
         <v>2</v>
@@ -13225,18 +12887,16 @@
         <v>7</v>
       </c>
       <c r="AD2" s="26" t="s">
-        <v>109</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:30" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="21">
         <v>45173.852442129632</v>
       </c>
-      <c r="B3" s="45" t="s">
-        <v>38</v>
-      </c>
+      <c r="B3" s="45"/>
       <c r="C3" s="18" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D3" s="22">
         <v>1</v>
@@ -13313,18 +12973,16 @@
         <v>7</v>
       </c>
       <c r="AD3" s="28" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:30" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="21">
         <v>45174.830509259256</v>
       </c>
-      <c r="B4" s="45" t="s">
-        <v>111</v>
-      </c>
+      <c r="B4" s="45"/>
       <c r="C4" s="18" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D4" s="22">
         <v>1</v>
@@ -13401,18 +13059,16 @@
         <v>9</v>
       </c>
       <c r="AD4" s="29" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:30" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="21">
         <v>45174.95244212963</v>
       </c>
-      <c r="B5" s="45" t="s">
-        <v>50</v>
-      </c>
+      <c r="B5" s="45"/>
       <c r="C5" s="18" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D5" s="22">
         <v>1</v>
@@ -13489,18 +13145,16 @@
         <v>6</v>
       </c>
       <c r="AD5" s="30" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:30" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="21">
         <v>45176.578414351854</v>
       </c>
-      <c r="B6" s="45" t="s">
-        <v>55</v>
-      </c>
+      <c r="B6" s="45"/>
       <c r="C6" s="18" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D6" s="22">
         <v>2</v>
@@ -13577,18 +13231,16 @@
         <v>11</v>
       </c>
       <c r="AD6" s="31" t="s">
-        <v>112</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:30" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="21">
         <v>45176.648587962962</v>
       </c>
-      <c r="B7" s="45" t="s">
-        <v>57</v>
-      </c>
+      <c r="B7" s="45"/>
       <c r="C7" s="18" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="D7" s="22">
         <v>1</v>
@@ -13670,11 +13322,9 @@
       <c r="A8" s="21">
         <v>45176.801782407405</v>
       </c>
-      <c r="B8" s="45" t="s">
-        <v>59</v>
-      </c>
+      <c r="B8" s="45"/>
       <c r="C8" s="18" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="D8" s="22">
         <v>2</v>
@@ -13756,11 +13406,9 @@
       <c r="A9" s="21">
         <v>45176.872604166667</v>
       </c>
-      <c r="B9" s="45" t="s">
-        <v>61</v>
-      </c>
+      <c r="B9" s="45"/>
       <c r="C9" s="18" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="D9" s="22">
         <v>0</v>
@@ -13842,11 +13490,9 @@
       <c r="A10" s="21">
         <v>45177.575821759259</v>
       </c>
-      <c r="B10" s="45" t="s">
-        <v>65</v>
-      </c>
+      <c r="B10" s="45"/>
       <c r="C10" s="18" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="D10" s="22">
         <v>3</v>
@@ -13928,11 +13574,9 @@
       <c r="A11" s="21">
         <v>45178.835636574076</v>
       </c>
-      <c r="B11" s="45" t="s">
-        <v>66</v>
-      </c>
+      <c r="B11" s="45"/>
       <c r="C11" s="18" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="D11" s="22">
         <v>1</v>
@@ -14014,11 +13658,9 @@
       <c r="A12" s="21">
         <v>45178.876701388886</v>
       </c>
-      <c r="B12" s="45" t="s">
-        <v>68</v>
-      </c>
+      <c r="B12" s="45"/>
       <c r="C12" s="18" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="D12" s="22">
         <v>0</v>
@@ -14100,11 +13742,9 @@
       <c r="A13" s="21">
         <v>45179.836296296293</v>
       </c>
-      <c r="B13" s="45" t="s">
-        <v>70</v>
-      </c>
+      <c r="B13" s="45"/>
       <c r="C13" s="18" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="D13" s="22">
         <v>2</v>
@@ -14186,11 +13826,9 @@
       <c r="A14" s="21">
         <v>45179.875219907408</v>
       </c>
-      <c r="B14" s="45" t="s">
-        <v>72</v>
-      </c>
+      <c r="B14" s="45"/>
       <c r="C14" s="18" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="D14" s="22">
         <v>3</v>
@@ -14272,11 +13910,9 @@
       <c r="A15" s="21">
         <v>45182.795138888891</v>
       </c>
-      <c r="B15" s="45" t="s">
-        <v>74</v>
-      </c>
+      <c r="B15" s="45"/>
       <c r="C15" s="18" t="s">
-        <v>113</v>
+        <v>93</v>
       </c>
       <c r="D15" s="22">
         <v>2</v>
@@ -14358,11 +13994,9 @@
       <c r="A16" s="21">
         <v>45186.62394675926</v>
       </c>
-      <c r="B16" s="45" t="s">
-        <v>75</v>
-      </c>
+      <c r="B16" s="45"/>
       <c r="C16" s="18" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="D16" s="22">
         <v>0</v>
@@ -14444,11 +14078,9 @@
       <c r="A17" s="21">
         <v>45190.810150462959</v>
       </c>
-      <c r="B17" s="45" t="s">
-        <v>77</v>
-      </c>
+      <c r="B17" s="45"/>
       <c r="C17" s="18" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="D17" s="22">
         <v>2</v>
@@ -14530,11 +14162,9 @@
       <c r="A18" s="21">
         <v>45190.820833333331</v>
       </c>
-      <c r="B18" s="45" t="s">
-        <v>79</v>
-      </c>
+      <c r="B18" s="45"/>
       <c r="C18" s="18" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="D18" s="22">
         <v>2</v>
@@ -14616,11 +14246,9 @@
       <c r="A19" s="21">
         <v>45191.839560185188</v>
       </c>
-      <c r="B19" s="45" t="s">
-        <v>81</v>
-      </c>
+      <c r="B19" s="45"/>
       <c r="C19" s="18" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="D19" s="22">
         <v>2</v>
@@ -14757,7 +14385,7 @@
       <c r="X21" s="18"/>
       <c r="Y21" s="18"/>
       <c r="Z21" s="19" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AA21" s="23">
         <v>5.0555555559999998</v>
@@ -14773,13 +14401,13 @@
     <row r="24" spans="1:30" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="25" spans="1:30" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AA25" s="19" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="AB25" s="19" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
       <c r="AC25" s="19" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
     </row>
     <row r="26" spans="1:30" x14ac:dyDescent="0.2">
@@ -14800,6 +14428,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="เอกสาร" ma:contentTypeID="0x01010014F7B50917F7DA49AE55285B29A4364D" ma:contentTypeVersion="8" ma:contentTypeDescription="สร้างเอกสารใหม่" ma:contentTypeScope="" ma:versionID="14339af8de4dfcee58b826365d8a4bd0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="56a572c9-8885-4e67-8033-6e590605eb7c" xmlns:ns4="00f89acd-b59b-4617-8b84-0187940ab3cd" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7a683926002d38c64ec2118f6d6ea524" ns3:_="" ns4:_="">
     <xsd:import namespace="56a572c9-8885-4e67-8033-6e590605eb7c"/>
@@ -14988,15 +14625,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -15006,6 +14634,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4BA21905-578E-4F6F-9041-E906AB2601E1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D7980EC1-1E44-4316-92E1-B9D7FD359072}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -15020,14 +14656,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4BA21905-578E-4F6F-9041-E906AB2601E1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
